--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3461877.400872987</v>
+        <v>3579239.290267614</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11143223.90601995</v>
+        <v>10367347.96096032</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7900862.599309489</v>
+        <v>7959077.939395725</v>
       </c>
     </row>
     <row r="11">
@@ -662,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>127.7116297869677</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>304.8222841491923</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -829,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,25 +861,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>94.69402002676038</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>202.7967375907932</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>15.44065522415804</v>
       </c>
       <c r="X5" t="n">
-        <v>102.7625700482014</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0669836643703</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>99.90681807664345</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>45.44580843958667</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.90078060183509</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
-        <v>147.9721212459916</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>195.0194028815133</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1066,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>120.4923784741208</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>110.9272034736103</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>9.496241549958874</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.4371413535349</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>299.8862654257798</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>195.661751342848</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.275240877313</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H9" t="n">
-        <v>92.26024958059013</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I9" t="n">
-        <v>18.18624318344744</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S9" t="n">
-        <v>133.2658462320107</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T9" t="n">
-        <v>191.828123840699</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8053112726921</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1297,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>57.09221410582654</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>146.8105729959039</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>103.3051669679944</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>99.32764374521088</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>193.7981713870603</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>220.5367941620016</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2244489913895</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>2.765657491901341</v>
       </c>
     </row>
     <row r="11">
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1528,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>125.9491534982824</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>41.01175877060096</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>205.6193274744346</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>173.5740289795531</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>160.9670287625424</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187864</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2245,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>115.6949510903007</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>127.6065435523135</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2287,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2485,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>105.1162657551307</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,16 +2535,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576399</v>
       </c>
     </row>
     <row r="26">
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2728,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>131.2944603446586</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>272.0418260162239</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2849,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2962,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>175.5375697851122</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>22.5488180434315</v>
       </c>
     </row>
     <row r="32">
@@ -3187,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3244,10 +3246,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>40.96105405076426</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722612</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695538</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3430,16 +3432,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>51.50556704456864</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>28.87857325624034</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,10 +3483,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3554,10 +3556,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>83.06560892428168</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>20.72279572932656</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3791,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>113.8415422301048</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>183.290622579669</v>
       </c>
     </row>
     <row r="44">
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>172.3645574474252</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>864.6405432696254</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="C2" t="n">
-        <v>864.6405432696254</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>582.6562847294801</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>196.8680321312359</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4334,13 +4336,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1628.245633506517</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X2" t="n">
-        <v>1254.779875245437</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y2" t="n">
-        <v>864.6405432696254</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.5993065148977</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="C4" t="n">
-        <v>268.5993065148977</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="D4" t="n">
-        <v>268.5993065148977</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="E4" t="n">
-        <v>268.5993065148977</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>2453.443748690007</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>2357.793223410451</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="W4" t="n">
-        <v>268.5993065148977</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="X4" t="n">
-        <v>268.5993065148977</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="Y4" t="n">
-        <v>268.5993065148977</v>
+        <v>2068.619613065019</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.979185313956</v>
+        <v>1686.741202187451</v>
       </c>
       <c r="C5" t="n">
-        <v>882.0166683735445</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D5" t="n">
-        <v>882.0166683735445</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>882.0166683735445</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>471.030763583937</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>242.5828808341008</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>646.0499938541462</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>1198.863252100346</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
-        <v>1830.581063083657</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>2024.91527597564</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2232.849924657333</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2662.164970996627</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2540.93405351505</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2326.134191782762</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2072.442488527913</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1741.379601184342</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1741.379601184342</v>
+        <v>2450.346292424342</v>
       </c>
       <c r="X5" t="n">
-        <v>1637.579025378078</v>
+        <v>2076.880534163262</v>
       </c>
       <c r="Y5" t="n">
-        <v>1637.579025378078</v>
+        <v>1686.741202187451</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>967.3646662469702</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>792.9116369658432</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>643.9772273045919</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>484.7397722991365</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>338.2052143260214</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>200.7638166852434</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>99.84783883004796</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>172.6022336772601</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>502.03063798307</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>1006.392177849189</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1646.937527316293</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>2314.481927343303</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2504.861470532118</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2613.551098059417</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2636.288039261394</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2615.176139663581</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2465.709350526216</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2268.720054686303</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
-        <v>2040.581267197469</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1805.429158965726</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1551.191802237525</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1343.340302031992</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1135.580003267038</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>318.0387174115834</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C7" t="n">
-        <v>318.0387174115834</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>318.0387174115834</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>318.0387174115834</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>318.0387174115834</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>196.3292442054008</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>196.3292442054008</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>71.81756957972706</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>154.9909114159743</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>339.8239063167927</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>545.0935070360306</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>750.9168718721348</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>925.0117672607337</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>1050.459343859349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>1053.877663279709</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>1053.877663279709</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>1053.877663279709</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>828.2484665920741</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>828.2484665920741</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V7" t="n">
-        <v>828.2484665920741</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W7" t="n">
-        <v>538.8312965551136</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="X7" t="n">
-        <v>538.8312965551136</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y7" t="n">
-        <v>318.0387174115834</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1937.083492693021</v>
+        <v>880.8144630605278</v>
       </c>
       <c r="C8" t="n">
-        <v>1927.491329511244</v>
+        <v>511.8519461201161</v>
       </c>
       <c r="D8" t="n">
-        <v>1569.225630904494</v>
+        <v>511.8519461201161</v>
       </c>
       <c r="E8" t="n">
-        <v>1183.437378306249</v>
+        <v>511.8519461201161</v>
       </c>
       <c r="F8" t="n">
-        <v>772.451473516642</v>
+        <v>504.9064453709126</v>
       </c>
       <c r="G8" t="n">
-        <v>356.8584014423642</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>199.514302137349</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>468.4264940665504</v>
+        <v>478.6443448337932</v>
       </c>
       <c r="L8" t="n">
-        <v>838.9376088552597</v>
+        <v>617.9730006750465</v>
       </c>
       <c r="M8" t="n">
-        <v>1282.872051350724</v>
+        <v>848.1892110771031</v>
       </c>
       <c r="N8" t="n">
-        <v>1738.603625623768</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2155.602766936376</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2477.000885571628</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.18474111696</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2697.149091018222</v>
@@ -4832,22 +4834,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2228.657526031085</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2031.019393361541</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2031.019393361541</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1657.553635100461</v>
       </c>
       <c r="Y8" t="n">
-        <v>2323.683332757143</v>
+        <v>1267.41430312465</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3062050962127</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8531758150857</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9187661538344</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E9" t="n">
-        <v>448.681311148379</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F9" t="n">
-        <v>302.146753175264</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>165.5050957234327</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>72.31292442990733</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>246.6565409677913</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>440.8349669871898</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>1053.207508523572</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>1431.308314177374</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N9" t="n">
-        <v>1833.824967998518</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2179.829273034831</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2438.195165861565</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.986726597623</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.986726597623</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.374760706703</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.608979049431</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.522806046712</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.370697814969</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.133341086767</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.281840881235</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.521542116281</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>659.0570876175617</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="C10" t="n">
-        <v>659.0570876175617</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="D10" t="n">
-        <v>659.0570876175617</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="E10" t="n">
-        <v>511.1439940351686</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="F10" t="n">
-        <v>364.2540465372582</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="G10" t="n">
-        <v>306.5851434000597</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="H10" t="n">
-        <v>158.2916353233891</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="I10" t="n">
+        <v>71.81756957972706</v>
+      </c>
+      <c r="J10" t="n">
         <v>53.94298182036445</v>
       </c>
-      <c r="J10" t="n">
-        <v>82.88339090485938</v>
-      </c>
       <c r="K10" t="n">
-        <v>260.2782098866545</v>
+        <v>154.9909114159743</v>
       </c>
       <c r="L10" t="n">
-        <v>542.8089378877603</v>
+        <v>339.8239063167927</v>
       </c>
       <c r="M10" t="n">
-        <v>851.0870999282808</v>
+        <v>545.0935070360306</v>
       </c>
       <c r="N10" t="n">
-        <v>1157.469712732903</v>
+        <v>750.9168718721348</v>
       </c>
       <c r="O10" t="n">
-        <v>1424.447349606354</v>
+        <v>925.0117672607337</v>
       </c>
       <c r="P10" t="n">
-        <v>1629.372157534688</v>
+        <v>1050.459343859349</v>
       </c>
       <c r="Q10" t="n">
-        <v>1687.816392302165</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1587.485439024174</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>1391.729710350376</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="T10" t="n">
-        <v>1168.965271802899</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="U10" t="n">
-        <v>879.8496667610918</v>
+        <v>557.2852021097942</v>
       </c>
       <c r="V10" t="n">
-        <v>879.8496667610918</v>
+        <v>302.6007139039074</v>
       </c>
       <c r="W10" t="n">
-        <v>879.8496667610918</v>
+        <v>302.6007139039074</v>
       </c>
       <c r="X10" t="n">
-        <v>879.8496667610918</v>
+        <v>74.61116300589003</v>
       </c>
       <c r="Y10" t="n">
-        <v>659.0570876175617</v>
+        <v>71.81756957972706</v>
       </c>
     </row>
     <row r="11">
@@ -5027,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,7 +5114,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
         <v>95.58405025273903</v>
@@ -5124,22 +5126,22 @@
         <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>429.5088224239596</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M12" t="n">
-        <v>1026.887310050512</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1654.485273605118</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2206.395003844405</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>614.6217844681063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>614.6217844681063</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557705</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1017.062828441876</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>796.270249298346</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961525</v>
+        <v>738.7889117913851</v>
       </c>
       <c r="M15" t="n">
-        <v>740.5562989961525</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1368.154262550759</v>
+        <v>1963.765362972543</v>
       </c>
       <c r="O15" t="n">
-        <v>1920.063992790046</v>
+        <v>2515.67509321183</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.2946447138411</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C16" t="n">
-        <v>747.3584617859342</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>597.2418223735984</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>449.3287287912053</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>302.4387812932949</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>135.2426820081749</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1003.633608981239</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>782.8410298377091</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5528,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1965.532750177311</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1965.532750177311</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>868.6673633290469</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C19" t="n">
-        <v>699.73118040114</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888043</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="X19" t="n">
-        <v>1271.108407302817</v>
+        <v>3738.657110224937</v>
       </c>
       <c r="Y19" t="n">
-        <v>1050.315828159287</v>
+        <v>3517.864531081407</v>
       </c>
     </row>
     <row r="20">
@@ -5732,22 +5734,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5759,13 +5761,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,7 +5785,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123002</v>
@@ -5832,25 +5834,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>221.3431781811722</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3012.408157764291</v>
+        <v>917.5010142286973</v>
       </c>
       <c r="C22" t="n">
-        <v>2843.471974836385</v>
+        <v>748.5648313007904</v>
       </c>
       <c r="D22" t="n">
-        <v>2843.471974836385</v>
+        <v>748.5648313007904</v>
       </c>
       <c r="E22" t="n">
-        <v>2695.558881253991</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>2548.668933756081</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2548.668933756081</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>3932.255922673039</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>3642.838752636078</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>3414.849201738061</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>3194.056622594531</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6065,28 @@
         <v>2231.588527385791</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.588527385791</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="K24" t="n">
-        <v>2231.588527385791</v>
+        <v>2277.006630178613</v>
       </c>
       <c r="L24" t="n">
-        <v>2726.91413360155</v>
+        <v>2772.332236394372</v>
       </c>
       <c r="M24" t="n">
-        <v>3324.292621228102</v>
+        <v>3369.710724020924</v>
       </c>
       <c r="N24" t="n">
-        <v>3678.660617711126</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="O24" t="n">
-        <v>4230.570347950413</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.193497445481</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q24" t="n">
         <v>4654.193497445481</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3301.825327801252</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C25" t="n">
-        <v>3132.889144873345</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D25" t="n">
-        <v>2982.77250546101</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E25" t="n">
-        <v>2834.859411878616</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3932.255922673039</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3932.255922673039</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3704.266371775022</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3483.473792631492</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6227,7 +6229,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6257,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6308,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.766565373399</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N27" t="n">
-        <v>1802.364528928006</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3333.446064938863</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C28" t="n">
-        <v>3164.509882010957</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>3014.393242598621</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>2866.480149016228</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>2719.590201518317</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2552.394102233197</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>4507.978318053498</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>4253.293829847611</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>3963.87665981065</v>
+        <v>1378.513107377167</v>
       </c>
       <c r="X28" t="n">
-        <v>3735.887108912633</v>
+        <v>1150.52355647915</v>
       </c>
       <c r="Y28" t="n">
-        <v>3515.094529769103</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>429.5088224239596</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
         <v>1896.176478190825</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578602</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1797.722346028744</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1508.305175991783</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.315625093766</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="32">
@@ -6774,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6892,16 +6894,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6914,25 +6916,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6950,34 +6952,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3079.45386151189</v>
+        <v>3229.995673940461</v>
       </c>
       <c r="C37" t="n">
-        <v>2910.517678583984</v>
+        <v>3061.059491012554</v>
       </c>
       <c r="D37" t="n">
-        <v>2760.401039171648</v>
+        <v>2910.942851600219</v>
       </c>
       <c r="E37" t="n">
-        <v>2760.401039171648</v>
+        <v>2763.029758017825</v>
       </c>
       <c r="F37" t="n">
-        <v>2613.511091673738</v>
+        <v>2616.139810519915</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376194</v>
+        <v>2448.943711234795</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398594</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053499</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.37685307644</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420638</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V37" t="n">
-        <v>3999.301626420638</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="W37" t="n">
-        <v>3709.884456383677</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="X37" t="n">
-        <v>3481.89490548566</v>
+        <v>3632.436717914231</v>
       </c>
       <c r="Y37" t="n">
-        <v>3261.10232634213</v>
+        <v>3411.644138770701</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7156,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7166,55 +7168,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>701.3802915967227</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>551.263652184387</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>403.3505586019938</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>256.4606111040835</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>256.4606111040835</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>114.7487799462815</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="41">
@@ -7400,58 +7402,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273905</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="L42" t="n">
-        <v>315.9123021921482</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>2830.73440221711</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>3458.332365771717</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>847.6442739835331</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7597,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>1029.292738813773</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y43" t="n">
-        <v>1029.292738813773</v>
+        <v>950.7540666811333</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7639,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7655,40 +7657,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>1965.532750177311</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>1965.532750177311</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>198.027470314254</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2272.857469997003</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8225,16 +8227,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>38.14709430781187</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8304,16 +8306,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>473.6238973478236</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>31.17902072732738</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,28 +8455,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>43.95636118853432</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8531,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>308.0334782747585</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>167.9634363311152</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>17.26494649393209</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>99.76050189075471</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>99.28295407562292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>20.09032791460257</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>6.25795120238422</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>64.74262662649474</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,16 +24135,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>30.73901155626842</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>12.68816929391041</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>40.30478226780055</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>9.000252501565257</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,13 +24657,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>14.48117232036714</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24850,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>76.6000735387158</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>196.0358353086633</v>
       </c>
     </row>
     <row r="32">
@@ -25075,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>16.31315520054599</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25132,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>245.5619442858267</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25318,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0185712477002</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>111.4161395899835</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>63.36835372228749</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>60.54304058923897</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>111.8681131589323</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>35.2940307724258</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>62.35543909864958</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>45.04089287986309</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>725831.8306079261</v>
+        <v>748222.7364204483</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>686152.6608156777</v>
+        <v>725831.8306079261</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>670775.4964643538</v>
+        <v>670775.4964643539</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>670775.4964643538</v>
+        <v>670775.4964643539</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>670775.4964643539</v>
+        <v>670775.4964643536</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>670775.4964643538</v>
+        <v>670775.4964643536</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>670775.4964643536</v>
+        <v>670775.4964643538</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>670775.4964643538</v>
+        <v>670775.4964643539</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>670775.4964643536</v>
+        <v>670775.4964643539</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="F2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>746610.6047132551</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.604713255</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="K2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="L2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="M2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="N2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132551</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
     </row>
     <row r="3">
@@ -26366,28 +26368,28 @@
         <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>196446.3877966352</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>315238.2384513056</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>475327.3220074726</v>
+        <v>771052.6913808065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6.063298011819521e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080586</v>
+        <v>124208.5107080584</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209922.4154630334</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>176266.9759012793</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>121617.1617317167</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682798</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682767</v>
+        <v>5677.536566682804</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682793</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682744</v>
@@ -26448,13 +26450,13 @@
         <v>5677.536566682744</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682768</v>
+        <v>5677.536566682717</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682767</v>
+        <v>5677.536566682738</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682769</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682744</v>
@@ -26470,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340946</v>
+      </c>
+      <c r="D5" t="n">
         <v>87562.0451708468</v>
-      </c>
-      <c r="D5" t="n">
-        <v>95586.42776879412</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26524,46 @@
         <v>-123285.7356165249</v>
       </c>
       <c r="C6" t="n">
-        <v>299188.2282557013</v>
+        <v>466682.1435980193</v>
       </c>
       <c r="D6" t="n">
-        <v>227021.8091726461</v>
+        <v>310878.3375042243</v>
       </c>
       <c r="E6" t="n">
-        <v>164483.2163151928</v>
+        <v>-131242.1530581413</v>
       </c>
       <c r="F6" t="n">
+        <v>639810.5383226656</v>
+      </c>
+      <c r="G6" t="n">
+        <v>639810.538322665</v>
+      </c>
+      <c r="H6" t="n">
+        <v>639810.5383226655</v>
+      </c>
+      <c r="I6" t="n">
+        <v>639810.538322665</v>
+      </c>
+      <c r="J6" t="n">
+        <v>463387.3191300724</v>
+      </c>
+      <c r="K6" t="n">
         <v>639810.5383226653</v>
       </c>
-      <c r="G6" t="n">
+      <c r="L6" t="n">
+        <v>639810.5383226653</v>
+      </c>
+      <c r="M6" t="n">
+        <v>515602.0276146069</v>
+      </c>
+      <c r="N6" t="n">
         <v>639810.5383226655</v>
       </c>
-      <c r="H6" t="n">
-        <v>639810.5383226653</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="O6" t="n">
         <v>639810.5383226654</v>
       </c>
-      <c r="J6" t="n">
-        <v>463387.3191300726</v>
-      </c>
-      <c r="K6" t="n">
-        <v>639810.5383226655</v>
-      </c>
-      <c r="L6" t="n">
-        <v>639810.5383226654</v>
-      </c>
-      <c r="M6" t="n">
-        <v>515602.0276146068</v>
-      </c>
-      <c r="N6" t="n">
-        <v>639810.5383226653</v>
-      </c>
-      <c r="O6" t="n">
-        <v>639810.5383226653</v>
-      </c>
       <c r="P6" t="n">
-        <v>639810.5383226655</v>
+        <v>639810.5383226656</v>
       </c>
     </row>
   </sheetData>
@@ -26701,10 +26703,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26738,10 +26740,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>593.4761003380651</v>
-      </c>
-      <c r="D3" t="n">
-        <v>961.5670451980342</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26799,7 +26801,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26820,16 +26822,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26923,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26960,19 +26962,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>215.7324361209784</v>
       </c>
-      <c r="D3" t="n">
-        <v>368.0909448599691</v>
-      </c>
       <c r="E3" t="n">
-        <v>406.4084551436396</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,16 +27384,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>279.1644159547437</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27439,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>44.41868456822073</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27579,25 +27581,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3410854313239</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>83.72626074579784</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>333.800313493255</v>
       </c>
       <c r="X5" t="n">
-        <v>266.9685306302676</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27786,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>46.42839808044963</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27816,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>175.5957948629807</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>355.7766502210487</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>61.44749355031658</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>120.9327970537822</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>206.1742023667268</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0364052149085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>132.0905071272869</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,19 +28019,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>109.164791892439</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>215.8189958601934</v>
       </c>
     </row>
     <row r="11">
@@ -28147,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28333,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28798,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29983,13 +29985,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30001,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,22 +30036,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30220,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30274,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31039,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.38583356919825</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>24.43391804055158</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>91.97984867651562</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
-        <v>202.4946418937401</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>303.4869768779021</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>376.5024309712531</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>418.9314987074825</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>425.710248335967</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>401.9861157822519</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>343.0858495426701</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>257.6431848457577</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>54.36718245810517</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>10.44398644916534</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.276533498840366</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>12.32862615985301</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>43.95082441182841</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>120.6044214847383</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>206.1321659070429</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>277.1701353512822</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>323.4444746842454</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>332.0050874900653</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>303.7197925947077</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>243.7619099671574</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.9483813607457</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>79.25705355080804</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>23.71104985784626</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>5.145325813308317</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.070202803888314</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>9.515075838207016</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>32.18391704784131</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>75.66333823490379</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3381075790241</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>159.1099695889954</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>167.7591540676927</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>163.7702163441091</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>151.2683017714137</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>129.436164572092</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.61489115104783</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>48.12020970937817</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
-        <v>18.65071613685361</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>4.572684707522795</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.865596161600135</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H8" t="n">
-        <v>39.58853668998739</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I8" t="n">
-        <v>149.0283960200893</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J8" t="n">
-        <v>328.0876422206097</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K8" t="n">
-        <v>491.7183277411435</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L8" t="n">
-        <v>610.0200662717137</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M8" t="n">
-        <v>678.7648620105701</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N8" t="n">
-        <v>689.7479871047166</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O8" t="n">
-        <v>651.3094652728051</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P8" t="n">
-        <v>555.8775600333017</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q8" t="n">
-        <v>417.4408974959968</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R8" t="n">
-        <v>242.8222548861146</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>88.08727253246315</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T8" t="n">
-        <v>16.9216471974046</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3092476929280107</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.068276285897658</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H9" t="n">
-        <v>19.97519465590634</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I9" t="n">
-        <v>71.21038966796763</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J9" t="n">
-        <v>195.4067520812345</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K9" t="n">
-        <v>333.9812632363776</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L9" t="n">
-        <v>449.0790242691386</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M9" t="n">
-        <v>524.0540396329286</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N9" t="n">
-        <v>537.9241906905494</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O9" t="n">
-        <v>492.0955424609223</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P9" t="n">
-        <v>394.9500567342643</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q9" t="n">
-        <v>264.0136536173924</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R9" t="n">
-        <v>128.4145574700319</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S9" t="n">
-        <v>38.4173248718271</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T9" t="n">
-        <v>8.336604854122577</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1360708082827407</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.733973360193176</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H10" t="n">
-        <v>15.41659951153571</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I10" t="n">
-        <v>52.1453079592639</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J10" t="n">
-        <v>122.5919165656576</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K10" t="n">
-        <v>201.4561776660799</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L10" t="n">
-        <v>257.7945484781746</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M10" t="n">
-        <v>271.8082059073721</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N10" t="n">
-        <v>265.3452142921068</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O10" t="n">
-        <v>245.0892527662137</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P10" t="n">
-        <v>209.7161962182728</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q10" t="n">
-        <v>145.1966238249032</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R10" t="n">
-        <v>77.96574763195861</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S10" t="n">
-        <v>30.21842664991198</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T10" t="n">
-        <v>7.408795266279933</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09458036510144609</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31841,37 +31843,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>595.3857163736978</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>211.5147800288493</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32074,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>500.7380235181012</v>
+        <v>134.7284881171904</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
-        <v>454.8099857531869</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,16 +32554,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>264.8708611242914</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>150.2061940096332</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,10 +32572,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>181.9330708814852</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>489.289183278307</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33026,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>547.6926421044561</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>237.3557891543625</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33257,25 +33259,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M30" t="n">
-        <v>432.1946015714842</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33442,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33494,25 +33496,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>300.768778117042</v>
       </c>
       <c r="O33" t="n">
-        <v>188.4731159523455</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33523,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,13 +33742,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>162.5000833330458</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33758,7 +33760,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,10 +33976,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34214,7 +34216,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>361.1081696176612</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34442,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,16 +34459,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>491.819738231079</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34711,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,10 +34792,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.5453525391276</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>638.0987989730422</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>210.034998668377</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130819</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.8578301584805</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>332.7559639452625</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>509.4561008748672</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>647.0155045122269</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>674.2872727545556</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>192.3025688775907</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P6" t="n">
-        <v>109.7875025528271</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.96660727472423</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>102.0686157531412</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>186.6999948493115</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>207.3430310295333</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>207.9023887233377</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>175.8534296854534</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>126.7147238369855</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.452847899353443</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.0417376939234</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>271.628476696163</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>374.2536513017265</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>448.4186287832974</v>
+        <v>232.5416266687441</v>
       </c>
       <c r="N8" t="n">
-        <v>460.3349235081257</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>421.2112538511184</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>324.6445642780322</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>195.1352076215473</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
-        <v>27.23671707198253</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.6601607549767</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>196.1398242620186</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>618.5581227640229</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>381.9200057109103</v>
+        <v>349.2738770933423</v>
       </c>
       <c r="N9" t="n">
-        <v>406.5824786072161</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>349.4992980164778</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>260.9756493199341</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.0318795313709</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>29.23273644898478</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>179.186685840197</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L10" t="n">
-        <v>285.3845737384908</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M10" t="n">
-        <v>311.3920828692127</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N10" t="n">
-        <v>309.4773866713355</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O10" t="n">
-        <v>269.6743806802534</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P10" t="n">
-        <v>206.9947554831663</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q10" t="n">
-        <v>59.03458057320877</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>453.2516824516795</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>77.5403726145191</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193529</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>366.763616103771</v>
+        <v>0.7540807028601763</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,10 +35898,10 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
-        <v>320.8355783388566</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36200,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>127.0294221499325</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>18.86448192629984</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,10 +36220,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36367,10 +36369,10 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>44.0916319071262</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>357.9474711949737</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36595,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36604,7 +36606,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36674,22 +36676,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>405.5586081824378</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>94.75954470991805</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36850,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M30" t="n">
-        <v>290.0605676494659</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37087,10 +37089,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>169.4270660337087</v>
       </c>
       <c r="O33" t="n">
-        <v>45.87687150790109</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37171,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37315,13 +37317,13 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37406,7 +37408,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37552,7 +37554,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193529</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37622,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37795,7 +37797,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37862,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>222.553789837787</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,16 +38107,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>357.8453308167487</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3579239.290267614</v>
+        <v>3574933.573891545</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7959077.939395725</v>
+        <v>7959077.939395724</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>127.7116297869677</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>157.1826414337804</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>39.25266187003844</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>94.69402002676038</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481178</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>15.44065522415804</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>59.68935914213875</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,25 +1098,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>27.88251911919333</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>110.9272034736103</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>63.69598423299897</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>195.661751342848</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>2.503313813407441</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.765657491901341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560518</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>20.43112068613203</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1609,13 +1609,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>134.1343006978453</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>205.6193274744346</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>173.5740289795531</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187864</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>115.6949510903007</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2478,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.8302520576399</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457615</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>86.09789039964274</v>
       </c>
       <c r="W28" t="n">
-        <v>272.0418260162239</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>22.5488180434315</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>130.1208074460232</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722612</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695538</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>28.87857325624034</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>20.72279572932656</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>183.290622579669</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>172.3645574474252</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>940.9219833362306</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C2" t="n">
-        <v>940.9219833362306</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D2" t="n">
-        <v>582.6562847294801</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E2" t="n">
-        <v>196.8680321312359</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2088.537901952342</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1757.475014608772</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>1404.706359338657</v>
       </c>
       <c r="X2" t="n">
-        <v>1331.061315312042</v>
+        <v>1404.706359338657</v>
       </c>
       <c r="Y2" t="n">
-        <v>940.9219833362306</v>
+        <v>1404.706359338657</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,19 +4412,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2068.619613065019</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>2068.619613065019</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>2068.619613065019</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E4" t="n">
-        <v>2068.619613065019</v>
+        <v>580.2158906240413</v>
       </c>
       <c r="F4" t="n">
-        <v>2068.619613065019</v>
+        <v>433.3259431261309</v>
       </c>
       <c r="G4" t="n">
-        <v>2068.619613065019</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>2068.619613065019</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>2068.619613065019</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>2453.443748690007</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>2357.793223410451</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>2068.619613065019</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>2068.619613065019</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>2068.619613065019</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>2068.619613065019</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>2068.619613065019</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1686.741202187451</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C5" t="n">
-        <v>1317.778685247039</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910852</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>534.6036777892721</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224071</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862884</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862884</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862884</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="W5" t="n">
-        <v>2450.346292424342</v>
+        <v>1782.111371249199</v>
       </c>
       <c r="X5" t="n">
-        <v>2076.880534163262</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="Y5" t="n">
-        <v>1686.741202187451</v>
+        <v>1721.819089287443</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,46 +4643,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027642002</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.821920859872</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417903</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517454</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477908</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>699.964823479976</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750362</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="U7" t="n">
-        <v>211.6471865296041</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="V7" t="n">
-        <v>211.6471865296041</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="W7" t="n">
-        <v>99.5995062532301</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="X7" t="n">
-        <v>99.5995062532301</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.5995062532301</v>
+        <v>551.8181649141599</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>880.8144630605278</v>
+        <v>1332.144298984919</v>
       </c>
       <c r="C8" t="n">
-        <v>511.8519461201161</v>
+        <v>1267.804920971789</v>
       </c>
       <c r="D8" t="n">
-        <v>511.8519461201161</v>
+        <v>1267.804920971789</v>
       </c>
       <c r="E8" t="n">
-        <v>511.8519461201161</v>
+        <v>882.0166683735445</v>
       </c>
       <c r="F8" t="n">
-        <v>504.9064453709126</v>
+        <v>471.030763583937</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6443448337932</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>617.9730006750465</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>848.1892110771031</v>
+        <v>1385.562664925753</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>1579.896877817736</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2127.058082584813</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2556.373128924107</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T8" t="n">
-        <v>2482.349229285934</v>
+        <v>2482.349229285932</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.657526031085</v>
+        <v>2482.349229285932</v>
       </c>
       <c r="V8" t="n">
-        <v>2031.019393361541</v>
+        <v>2482.349229285932</v>
       </c>
       <c r="W8" t="n">
-        <v>2031.019393361541</v>
+        <v>2482.349229285932</v>
       </c>
       <c r="X8" t="n">
-        <v>1657.553635100461</v>
+        <v>2108.883471024852</v>
       </c>
       <c r="Y8" t="n">
-        <v>1267.41430312465</v>
+        <v>1718.744139049041</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>200.7638166852433</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>99.84783883004793</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>502.0306379830699</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>639.2602359987638</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>818.7575723533687</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1486.301972380378</v>
       </c>
       <c r="O9" t="n">
         <v>1981.606814720089</v>
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>71.81756957972706</v>
+        <v>71.81756957972704</v>
       </c>
       <c r="C10" t="n">
-        <v>71.81756957972706</v>
+        <v>71.81756957972704</v>
       </c>
       <c r="D10" t="n">
-        <v>71.81756957972706</v>
+        <v>71.81756957972704</v>
       </c>
       <c r="E10" t="n">
-        <v>71.81756957972706</v>
+        <v>71.81756957972704</v>
       </c>
       <c r="F10" t="n">
-        <v>71.81756957972706</v>
+        <v>71.81756957972704</v>
       </c>
       <c r="G10" t="n">
-        <v>71.81756957972706</v>
+        <v>71.81756957972704</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>71.81756957972704</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>71.81756957972704</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>154.9909114159743</v>
+        <v>154.9909114159742</v>
       </c>
       <c r="L10" t="n">
         <v>339.8239063167927</v>
@@ -4992,22 +4992,22 @@
         <v>846.4373785321145</v>
       </c>
       <c r="T10" t="n">
-        <v>846.4373785321145</v>
+        <v>843.9087787205918</v>
       </c>
       <c r="U10" t="n">
-        <v>557.2852021097942</v>
+        <v>843.9087787205918</v>
       </c>
       <c r="V10" t="n">
-        <v>302.6007139039074</v>
+        <v>589.224290514705</v>
       </c>
       <c r="W10" t="n">
-        <v>302.6007139039074</v>
+        <v>299.8071204777444</v>
       </c>
       <c r="X10" t="n">
-        <v>74.61116300589003</v>
+        <v>71.81756957972704</v>
       </c>
       <c r="Y10" t="n">
-        <v>71.81756957972706</v>
+        <v>71.81756957972704</v>
       </c>
     </row>
     <row r="11">
@@ -5038,31 +5038,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,25 +5117,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>493.2161050975141</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5202,49 +5202,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5287,16 +5287,16 @@
         <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5311,19 +5311,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756265</v>
+        <v>372.4964262156772</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913851</v>
+        <v>867.8220324314358</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972543</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.67509321183</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
         <v>2516.421633107662</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>782.8410298377091</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2061.573352863481</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1772.498126207679</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1517.813638001792</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1228.396467964831</v>
       </c>
       <c r="X16" t="n">
-        <v>1003.633608981239</v>
+        <v>1000.406917066814</v>
       </c>
       <c r="Y16" t="n">
-        <v>782.8410298377091</v>
+        <v>779.6143379232838</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>3966.646661122954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>3738.657110224937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>3517.864531081407</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,19 +5734,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
@@ -5761,40 +5761,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397182</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.21291626627</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>917.5010142286973</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>748.5648313007904</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>748.5648313007904</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1099.149479058937</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,10 +5983,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6016,7 +6016,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>2233.355914590558</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2277.006630178613</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>2772.332236394372</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>3369.710724020924</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>3997.308687575531</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O24" t="n">
-        <v>3997.308687575531</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>4420.931837070599</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>702.4944101284095</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>533.5582272005026</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>383.4415877881669</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6192,7 +6192,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>884.1428749586493</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>929.7309773356195</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W28" t="n">
-        <v>1378.513107377167</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X28" t="n">
-        <v>1150.52355647915</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y28" t="n">
-        <v>929.7309773356195</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="29">
@@ -6451,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6548,22 +6548,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>671.2000270096659</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8536007400712</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6919,16 +6919,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6937,10 +6937,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3229.995673940461</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3061.059491012554</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2910.942851600219</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2763.029758017825</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2616.139810519915</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2448.943711234795</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3860.426268812248</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3632.436717914231</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3411.644138770701</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,31 +7162,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7253,13 +7253,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M39" t="n">
         <v>949.9304447718133</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>870.3164745246296</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C40" t="n">
-        <v>701.3802915967227</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D40" t="n">
-        <v>551.263652184387</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>403.3505586019938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>256.4606111040835</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>256.4606111040835</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>114.7487799462815</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.747069396417</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.757518498399</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.964939354869</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="41">
@@ -7417,13 +7417,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2233.355914590558</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2233.355914590558</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>2233.355914590558</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M42" t="n">
-        <v>2830.73440221711</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
-        <v>3458.332365771717</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>3997.308687575531</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.7540666811333</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532264</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.7540666811333</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7727,22 +7727,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2272.857469997003</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270199</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719093</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8452,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>43.95636118853432</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8473,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>106.8604465378976</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,22 +8531,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>167.9634363311152</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478232</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>339.1843734050004</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>146.8157004124958</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>83.27114962944296</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>20.09032791460257</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.25795120238422</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>30.73901155626842</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.7544012944549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>166.0397529241853</v>
       </c>
       <c r="W28" t="n">
-        <v>14.48117232036714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>196.0358353086633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>16.31315520054599</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>111.4161395899835</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>69.70496293143185</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>60.54304058923897</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.2940307724258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>45.04089287986309</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>670775.4964643538</v>
+        <v>670775.4964643536</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>670775.4964643539</v>
+        <v>670775.4964643538</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>670775.4964643539</v>
+        <v>670775.4964643536</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>670775.4964643538</v>
+        <v>670775.4964643536</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>670775.4964643539</v>
+        <v>670775.4964643538</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>670775.4964643538</v>
+        <v>670775.4964643536</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>670775.4964643539</v>
+        <v>670775.4964643536</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>670775.4964643539</v>
+        <v>670775.4964643536</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>670775.4964643539</v>
+        <v>670775.4964643536</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244622</v>
+      </c>
+      <c r="C2" t="n">
+        <v>759463.6371244624</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244623</v>
       </c>
-      <c r="C2" t="n">
-        <v>759463.6371244621</v>
-      </c>
-      <c r="D2" t="n">
-        <v>759463.6371244621</v>
-      </c>
       <c r="E2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.604713255</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132557</v>
       </c>
       <c r="I2" t="n">
-        <v>746610.604713255</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132557</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="N2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132555</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>184756.2785481119</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>771052.6913808062</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>6.063298011819521e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080584</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,28 +26420,28 @@
         <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>209922.4154630333</v>
+        <v>209922.4154630334</v>
       </c>
       <c r="D4" t="n">
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682826</v>
+      </c>
+      <c r="F4" t="n">
         <v>5677.536566682798</v>
       </c>
-      <c r="F4" t="n">
-        <v>5677.536566682804</v>
-      </c>
       <c r="G4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682812</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682793</v>
+        <v>5677.536566682798</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682795</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682744</v>
@@ -26450,16 +26450,16 @@
         <v>5677.536566682744</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682717</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682738</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="O4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="P4" t="n">
         <v>5677.536566682745</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>87562.04517084677</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-123285.7356165249</v>
+        <v>-123285.7356165251</v>
       </c>
       <c r="C6" t="n">
-        <v>466682.1435980193</v>
+        <v>466682.14359802</v>
       </c>
       <c r="D6" t="n">
         <v>310878.3375042243</v>
       </c>
       <c r="E6" t="n">
-        <v>-131242.1530581413</v>
+        <v>-131589.532312498</v>
       </c>
       <c r="F6" t="n">
-        <v>639810.5383226656</v>
+        <v>639463.1590683085</v>
       </c>
       <c r="G6" t="n">
-        <v>639810.538322665</v>
+        <v>639463.1590683082</v>
       </c>
       <c r="H6" t="n">
-        <v>639810.5383226655</v>
+        <v>639463.1590683089</v>
       </c>
       <c r="I6" t="n">
-        <v>639810.538322665</v>
+        <v>639463.1590683085</v>
       </c>
       <c r="J6" t="n">
-        <v>463387.3191300724</v>
+        <v>463039.9398757158</v>
       </c>
       <c r="K6" t="n">
-        <v>639810.5383226653</v>
+        <v>639463.1590683085</v>
       </c>
       <c r="L6" t="n">
-        <v>639810.5383226653</v>
+        <v>639463.1590683089</v>
       </c>
       <c r="M6" t="n">
-        <v>515602.0276146069</v>
+        <v>515254.64836025</v>
       </c>
       <c r="N6" t="n">
-        <v>639810.5383226655</v>
+        <v>639463.1590683085</v>
       </c>
       <c r="O6" t="n">
-        <v>639810.5383226654</v>
+        <v>639463.1590683087</v>
       </c>
       <c r="P6" t="n">
-        <v>639810.5383226656</v>
+        <v>639463.1590683088</v>
       </c>
     </row>
   </sheetData>
@@ -26694,25 +26694,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.067332427276436e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.067332427276436e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26925,13 +26925,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.067332427276436e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>215.7324361209787</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036085</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27162,13 +27162,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.067332427276436e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>279.1644159547437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>94.04152607450894</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27545,19 +27545,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>128.0571403890125</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>130.3410854313239</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>333.800313493255</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>310.0417415363303</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27785,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,25 +27818,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>1.240230835721022</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>175.5957948629807</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>301.5769075380086</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,10 +27909,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>132.0905071272869</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28064,22 +28064,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>220.8695909073513</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>215.8189958601934</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28149,16 +28149,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.736439038534721e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28329,13 +28329,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.097362201107899e-12</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29985,13 +29985,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,22 +30036,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554462</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.3907153663379</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473548</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141103</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839647</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078605</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644437</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813574</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175836</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383793</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>595.3857163736978</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>593.5422977113966</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32080,7 +32080,7 @@
         <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>268.1779244693597</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473071</v>
@@ -32092,10 +32092,10 @@
         <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>134.7284881171904</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32317,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32563,19 +32563,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>150.2061940096332</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>181.9330708814852</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32800,10 +32800,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32812,7 +32812,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33028,25 +33028,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>547.6926421044561</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33268,25 +33268,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>233.3139244897921</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33444,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,22 +33505,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>300.768778117042</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,19 +33733,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>162.5000833330458</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>210.3948924365567</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33754,7 +33754,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33897,7 +33897,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33973,16 +33973,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -34207,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>687.0167715190038</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34447,7 +34447,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34459,13 +34459,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>746.4857620875799</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624604</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873142</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>232.5416266687441</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35193,7 +35193,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>142.1979415092058</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>349.2738770933423</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>500.3079215552637</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>453.2516824516795</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>462.2005856280633</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>130.3364854950007</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674329</v>
@@ -35740,10 +35740,10 @@
         <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.7540807028601763</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35901,7 +35901,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
@@ -35965,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36211,19 +36211,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>18.86448192629984</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36369,7 +36369,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>44.0916319071262</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36448,10 +36448,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36460,7 +36460,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36676,25 +36676,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>405.5586081824378</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>94.75954470991793</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>169.4270660337087</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37317,7 +37317,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37381,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>23.94570355317166</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453838</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37402,7 +37402,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37545,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>544.4205270745593</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38107,13 +38107,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>615.1440500042467</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3574933.573891545</v>
+        <v>3576694.104194331</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>100.8330673628374</v>
       </c>
       <c r="U2" t="n">
-        <v>157.1826414337804</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,16 +831,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>39.25266187003844</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481178</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>232.5745426193272</v>
       </c>
       <c r="X5" t="n">
-        <v>59.68935914213875</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229336</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853704</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.88251911919333</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>99.66075074687578</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>63.69598423299897</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>132.1808662081123</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>2.503313813407441</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>202.3860496764733</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>41.01175877060142</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>134.1343006978453</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>186.4479095884334</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457615</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2727,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V28" t="n">
-        <v>86.09789039964274</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>102.1557845699813</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3198,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>134.5665975534137</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576164</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>78.9105100867805</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>151.855586233358</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1018.106519274536</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>1018.106519274536</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2364.0913306681</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.537901952342</v>
+        <v>2110.329545306192</v>
       </c>
       <c r="V2" t="n">
-        <v>1757.475014608772</v>
+        <v>1779.266657962621</v>
       </c>
       <c r="W2" t="n">
-        <v>1404.706359338657</v>
+        <v>1426.498002692507</v>
       </c>
       <c r="X2" t="n">
-        <v>1404.706359338657</v>
+        <v>1426.498002692507</v>
       </c>
       <c r="Y2" t="n">
-        <v>1404.706359338657</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>580.2158906240413</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>433.3259431261309</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1721.819089287443</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C5" t="n">
-        <v>1721.819089287443</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910852</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.6036777892721</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252749</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224071</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548714</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862884</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862884</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862884</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519314</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249199</v>
+        <v>2032.286037546921</v>
       </c>
       <c r="X5" t="n">
-        <v>1721.819089287443</v>
+        <v>1658.820279285841</v>
       </c>
       <c r="Y5" t="n">
-        <v>1721.819089287443</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036442</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027642002</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.821920859872</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417903</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517454</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537798</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>551.8181649141599</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>551.8181649141599</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>551.8181649141599</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>551.8181649141599</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>404.9282174162495</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477908</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658207</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502497</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594897</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>699.964823479976</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>551.8181649141599</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>551.8181649141599</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>551.8181649141599</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>551.8181649141599</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>551.8181649141599</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W7" t="n">
-        <v>551.8181649141599</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="X7" t="n">
-        <v>551.8181649141599</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>551.8181649141599</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1332.144298984919</v>
+        <v>569.4689029567853</v>
       </c>
       <c r="C8" t="n">
-        <v>1267.804920971789</v>
+        <v>200.5063860163736</v>
       </c>
       <c r="D8" t="n">
-        <v>1267.804920971789</v>
+        <v>200.5063860163736</v>
       </c>
       <c r="E8" t="n">
-        <v>882.0166683735445</v>
+        <v>200.5063860163736</v>
       </c>
       <c r="F8" t="n">
-        <v>471.030763583937</v>
+        <v>66.99035954353293</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>157.7403863883401</v>
       </c>
       <c r="L8" t="n">
-        <v>1198.863252100346</v>
+        <v>297.0690422295933</v>
       </c>
       <c r="M8" t="n">
-        <v>1385.562664925753</v>
+        <v>848.1892110771031</v>
       </c>
       <c r="N8" t="n">
-        <v>1579.896877817736</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2127.058082584813</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2556.373128924107</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018221</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2482.349229285932</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2482.349229285932</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V8" t="n">
-        <v>2482.349229285932</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="W8" t="n">
-        <v>2482.349229285932</v>
+        <v>1719.673833257799</v>
       </c>
       <c r="X8" t="n">
-        <v>2108.883471024852</v>
+        <v>1346.208074996719</v>
       </c>
       <c r="Y8" t="n">
-        <v>1718.744139049041</v>
+        <v>956.068743020907</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852433</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004793</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>502.0306379830699</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>639.2602359987638</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>818.7575723533687</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N9" t="n">
-        <v>1486.301972380378</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
         <v>1981.606814720089</v>
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>71.81756957972704</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>71.81756957972704</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>71.81756957972704</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>71.81756957972704</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>71.81756957972704</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>71.81756957972704</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972704</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972704</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>154.9909114159742</v>
+        <v>154.9909114159743</v>
       </c>
       <c r="L10" t="n">
         <v>339.8239063167927</v>
@@ -4989,25 +4989,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>846.4373785321145</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>843.9087787205918</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>843.9087787205918</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>589.224290514705</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>299.8071204777444</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>71.81756957972704</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>71.81756957972704</v>
+        <v>849.4473100711502</v>
       </c>
     </row>
     <row r="11">
@@ -5035,55 +5035,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
         <v>2129.438138565707</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="14">
@@ -5260,40 +5260,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5305,22 +5305,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>372.4964262156772</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>867.8220324314358</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M15" t="n">
-        <v>1465.200520057987</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612594</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2061.573352863481</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1772.498126207679</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1517.813638001792</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1228.396467964831</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1000.406917066814</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>779.6143379232838</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="20">
@@ -5743,13 +5743,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5773,16 +5773,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="23">
@@ -5980,13 +5980,13 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6016,7 +6016,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6220,10 +6220,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6235,10 +6235,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6253,10 +6253,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784063</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6414,22 +6414,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1851.318825887154</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1561.901655850193</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>1333.912104952176</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>1113.119525808646</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6551,19 +6551,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>241.729756630365</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797187</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6697,22 +6697,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2243.991523718104</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T34" t="n">
-        <v>2024.390058741045</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7025,16 +7025,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7256,25 +7256,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>949.9304447718133</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.4550657171301</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>564.5188827892232</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473698</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7496,16 +7496,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270199</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719093</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>368.1017737596992</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8473,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>106.8604465378976</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8537,16 +8537,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478232</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>339.1843734050004</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>177.5728945814934</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>83.27114962944296</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>30.95754073885482</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V28" t="n">
-        <v>166.0397529241853</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>46.45968844823085</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>69.70496293143185</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>65.54986409393027</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>670775.4964643536</v>
+        <v>670775.4964643538</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>670775.4964643538</v>
+        <v>670775.4964643536</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>670775.4964643536</v>
+        <v>670775.4964643539</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>670775.4964643536</v>
+        <v>670775.4964643538</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>670775.4964643538</v>
+        <v>670775.4964643539</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>670775.4964643538</v>
+        <v>670775.4964643536</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>670775.4964643536</v>
+        <v>670775.4964643538</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.604713255</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132557</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="I2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132557</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="N2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132555</v>
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481119</v>
+        <v>184756.2785481117</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808062</v>
+        <v>771052.6913808065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080587</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,43 +26420,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>209922.4154630334</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682826</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682798</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682812</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682798</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="M4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="J4" t="n">
-        <v>5677.536566682795</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>5677.536566682721</v>
+      </c>
+      <c r="O4" t="n">
         <v>5677.536566682745</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682745</v>
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340943</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.04517084677</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-123285.7356165251</v>
+        <v>-123285.7356165252</v>
       </c>
       <c r="C6" t="n">
-        <v>466682.14359802</v>
+        <v>466682.1435980195</v>
       </c>
       <c r="D6" t="n">
-        <v>310878.3375042243</v>
+        <v>310878.3375042244</v>
       </c>
       <c r="E6" t="n">
-        <v>-131589.532312498</v>
+        <v>-131276.8909835767</v>
       </c>
       <c r="F6" t="n">
-        <v>639463.1590683085</v>
+        <v>639775.8003972301</v>
       </c>
       <c r="G6" t="n">
-        <v>639463.1590683082</v>
+        <v>639775.8003972303</v>
       </c>
       <c r="H6" t="n">
-        <v>639463.1590683089</v>
+        <v>639775.80039723</v>
       </c>
       <c r="I6" t="n">
-        <v>639463.1590683085</v>
+        <v>639775.8003972298</v>
       </c>
       <c r="J6" t="n">
-        <v>463039.9398757158</v>
+        <v>463352.5812046368</v>
       </c>
       <c r="K6" t="n">
-        <v>639463.1590683085</v>
+        <v>639775.80039723</v>
       </c>
       <c r="L6" t="n">
-        <v>639463.1590683089</v>
+        <v>639775.80039723</v>
       </c>
       <c r="M6" t="n">
-        <v>515254.64836025</v>
+        <v>515567.289689171</v>
       </c>
       <c r="N6" t="n">
-        <v>639463.1590683085</v>
+        <v>639775.8003972298</v>
       </c>
       <c r="O6" t="n">
-        <v>639463.1590683087</v>
+        <v>639775.8003972301</v>
       </c>
       <c r="P6" t="n">
-        <v>639463.1590683088</v>
+        <v>639775.8003972302</v>
       </c>
     </row>
   </sheetData>
@@ -26694,25 +26694,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.067332427276436e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.067332427276436e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170863</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.067332427276436e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26965,34 +26965,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209787</v>
+        <v>215.7324361209785</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036085</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.067332427276436e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>115.6152529948204</v>
       </c>
       <c r="U2" t="n">
-        <v>94.04152607450894</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1681237664917</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>128.0571403890125</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27621,10 +27621,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>116.6664260980858</v>
       </c>
       <c r="X5" t="n">
-        <v>310.0417415363303</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27785,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.240230835721022</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>126.0489046421614</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>301.5769075380086</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>274.6951795335992</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28034,7 +28034,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>220.8695909073513</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>16.19860367562146</v>
       </c>
     </row>
     <row r="11">
@@ -28152,13 +28152,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.736439038534721e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1.097362201107899e-12</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554462</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.3907153663379</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473548</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141103</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839647</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078605</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644437</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813574</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302232</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175836</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383793</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701161</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>246.9596973201445</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>593.5422977113966</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>268.1779244693597</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>601.0567753070487</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,16 +32311,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32332,7 +32332,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32554,7 +32554,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551106</v>
+        <v>138.5955196772184</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32575,7 +32575,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33271,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N30" t="n">
-        <v>193.1175412796309</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33511,7 +33511,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33520,7 +33520,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>175.960367665998</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>210.3948924365567</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,22 +34213,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624604</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262936</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338901</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245896</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735645</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.811094813734</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713947</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873142</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>556.6870392399089</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35193,7 +35193,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>142.1979415092058</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35257,16 +35257,16 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545553</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>500.3079215552637</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>462.2005856280633</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>130.3364854950007</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>469.7150632237154</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35980,7 +35980,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075158</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36919,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N30" t="n">
-        <v>61.77582919629761</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37159,7 +37159,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>68.26085851453838</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>376.3054212373396</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>376.3054212373396</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
